--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ACDF/10/seed5/result_data_KNN.xlsx
@@ -539,7 +539,7 @@
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.135999999999999</v>
+        <v>-7.904000000000001</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -556,7 +556,7 @@
         <v>-10.59</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.045999999999999</v>
+        <v>-7.35</v>
       </c>
       <c r="E7" t="n">
         <v>14.77</v>
@@ -570,7 +570,7 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.422</v>
+        <v>-12.672</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.414</v>
+        <v>-21.882</v>
       </c>
       <c r="B12" t="n">
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.332</v>
+        <v>-13.002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.252</v>
+        <v>-11.675</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -760,10 +760,10 @@
         <v>-14.32</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.568000000000001</v>
+        <v>-7.764000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.648</v>
+        <v>12.965</v>
       </c>
     </row>
     <row r="20">
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.859999999999999</v>
+        <v>-7.597999999999999</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.37</v>
+        <v>-12.846</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -845,7 +845,7 @@
         <v>-12.7</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.554</v>
+        <v>-7.637</v>
       </c>
       <c r="E24" t="n">
         <v>12.16</v>
